--- a/ITI/basicaudit/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/basicaudit/StructureDefinition-ihe-otherId.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-28T21:31:55-06:00</t>
+    <t>2022-03-02T08:01:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
